--- a/medicine/Enfance/Unni_Lindell/Unni_Lindell.xlsx
+++ b/medicine/Enfance/Unni_Lindell/Unni_Lindell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Unni Lindell, née le 3 avril 1957 à Oslo en Norvège, est une romancière norvégienne. Elle est connue pour ses romans policiers et ses livres pour enfants et jeunes adultes.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Unni Lindell naît en 1957 à Oslo. De 1979 à 1987, elle travaille comme journaliste avant de devenir romancière avec la publication d'un premier roman pour la jeunesse en 1986. 
 En 1996, elle débute une série policière consacrée aux aventures de l'inspectrice Cato Isaksen avec le roman Le 13e signe (Slangebæreren) et obtient le prix Riverton avec Drømmefangeren, le deuxième volume de cette série en 1999. En 2010, avec Sukkerdøden, elle signe le dixième titre de cette série.
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Cato Isaksen
-Slangebæreren (1996) Publié en français sous le titre Le 13e signe, traduction d'Ellen Huse Foucher, Paris, éditions Stock, 2001.
+          <t>Série Cato Isaksen</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Slangebæreren (1996) Publié en français sous le titre Le 13e signe, traduction d'Ellen Huse Foucher, Paris, éditions Stock, 2001.
 Drømmefangeren (1999)
 Sørgekåpen (2000)
 Nattsøsteren (2003)
@@ -556,12 +575,80 @@
 Mørkemannen (2008)
 Sukkerdøden (2010)
 Djevelkysset (2012)
-Brudekisten (2014)
-Série Marian Dahle
-Jeg vet hvor du bor (2016)
-Dronen (2018)
-Autres romans, ouvrages pour la jeunesse et  poésie
-Den grønne dagen (1986)
+Brudekisten (2014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unni_Lindell</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Unni_Lindell</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Marian Dahle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jeg vet hvor du bor (2016)
+Dronen (2018)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unni_Lindell</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Unni_Lindell</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres romans, ouvrages pour la jeunesse et  poésie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Den grønne dagen (1986)
 Kongen er pappaen til to tvillinger som heter Gro og Kåre (1987)
 Hemmeligheten i sirkuset (1988)
 Henrik Vipsen og hans bifokale onkel som er født i fiskebollens tegn (1988)
@@ -614,35 +701,43 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Unni_Lindell</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Unni_Lindell</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Comme auteur adapté
-À la télévision
-2005 : Slangebæreren, mini-série norvégienne réalisé par Martin Asphaug (en) d'après le roman éponyme.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Comme auteur adapté</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2005 : Slangebæreren, mini-série norvégienne réalisé par Martin Asphaug (en) d'après le roman éponyme.
 2005 : Drømmefangeren, mini-série norvégienne réalisé par Trygve Allister Diesen (en) d'après le roman éponyme.
 2007 : Sørgekåpen, mini-série norvégienne réalisé par Thomas Kaiser (no) d'après le roman éponyme.
 2007 : Nattsøsteren, mini-série norvégienne réalisé par Alexander Eik (no) d'après le roman éponyme.
@@ -651,31 +746,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Unni_Lindell</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Unni_Lindell</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Récompenses notables</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Prix Riverton en 1999 pour Drømmefangeren.
 Prix Riverton en 2018 pour Dronen.</t>
